--- a/database/Export/Tabelas Finais/POF 2007 TBL_6/Tabela6.xlsx
+++ b/database/Export/Tabelas Finais/POF 2007 TBL_6/Tabela6.xlsx
@@ -396,107 +396,107 @@
         </is>
       </c>
       <c r="B2">
-        <v>14704.469</v>
+        <v>6687.575</v>
       </c>
       <c r="C2">
-        <v>66057.912</v>
+        <v>24406.191</v>
       </c>
       <c r="D2">
-        <v>10957.771</v>
+        <v>10930.618</v>
       </c>
       <c r="E2">
-        <v>5697.163000000001</v>
+        <v>3531.04</v>
       </c>
       <c r="F2">
-        <v>3892.963</v>
+        <v>3540.594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>23.817</v>
+        <v>656.83</v>
       </c>
       <c r="C3">
-        <v>39.926</v>
+        <v>850.588</v>
       </c>
       <c r="D3">
-        <v>113.662</v>
+        <v>1599.737</v>
       </c>
       <c r="E3">
-        <v>115.228</v>
+        <v>721.728</v>
       </c>
       <c r="F3">
-        <v>53.851</v>
+        <v>752.542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>376.073</v>
+        <v>1310.715</v>
       </c>
       <c r="C4">
-        <v>972.597</v>
+        <v>3647.707</v>
       </c>
       <c r="D4">
-        <v>2292.291</v>
+        <v>4018.96</v>
       </c>
       <c r="E4">
-        <v>978.576</v>
+        <v>2267.597</v>
       </c>
       <c r="F4">
-        <v>881.2859999999999</v>
+        <v>1868.467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>892.043</v>
+        <v>1346.904</v>
       </c>
       <c r="C5">
-        <v>2704.217</v>
+        <v>2962.472</v>
       </c>
       <c r="D5">
-        <v>3134.777</v>
+        <v>2467.249</v>
       </c>
       <c r="E5">
-        <v>2129.358</v>
+        <v>2179.533</v>
       </c>
       <c r="F5">
-        <v>1167.414</v>
+        <v>1583.398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>1241.316</v>
+        <v>8.497</v>
       </c>
       <c r="C6">
-        <v>2800.399</v>
+        <v>16.374</v>
       </c>
       <c r="D6">
-        <v>2180.726</v>
+        <v>55.008</v>
       </c>
       <c r="E6">
-        <v>2255.505</v>
+        <v>38.772</v>
       </c>
       <c r="F6">
-        <v>1326.887</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>5375.505</v>
+        <v>12761.313</v>
       </c>
       <c r="C7">
-        <v>16868.738</v>
+        <v>26698.683</v>
       </c>
       <c r="D7">
-        <v>23635.438</v>
+        <v>35207.514</v>
       </c>
       <c r="E7">
-        <v>18024.136</v>
+        <v>23288.278</v>
       </c>
       <c r="F7">
-        <v>14364.472</v>
+        <v>19515.443</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>4471.74</v>
+        <v>10299.012</v>
       </c>
       <c r="C8">
-        <v>9059.536</v>
+        <v>17071.984</v>
       </c>
       <c r="D8">
-        <v>10946.45</v>
+        <v>20522.732</v>
       </c>
       <c r="E8">
-        <v>9352.459999999999</v>
+        <v>13230.731</v>
       </c>
       <c r="F8">
-        <v>5686.772</v>
+        <v>10397.524</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>27.39</v>
+        <v>125.713</v>
       </c>
       <c r="C9">
-        <v>70.822</v>
+        <v>383.861</v>
       </c>
       <c r="D9">
-        <v>387.555</v>
+        <v>1079.876</v>
       </c>
       <c r="E9">
-        <v>230.853</v>
+        <v>613.7000000000001</v>
       </c>
       <c r="F9">
-        <v>49.272</v>
+        <v>265.2</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>4326.723</v>
+        <v>4610.277</v>
       </c>
       <c r="C10">
-        <v>869.352</v>
+        <v>508.381</v>
       </c>
       <c r="D10">
-        <v>637.798</v>
+        <v>456.247</v>
       </c>
       <c r="E10">
-        <v>467.997</v>
+        <v>257.054</v>
       </c>
       <c r="F10">
-        <v>277.52</v>
+        <v>256.56</v>
       </c>
     </row>
   </sheetData>
